--- a/docs/misc/RangeCalc.xlsx
+++ b/docs/misc/RangeCalc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21713" windowHeight="10268" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21713" windowHeight="10268" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mult" sheetId="5" r:id="rId1"/>
@@ -2050,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
@@ -3199,7 +3199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
